--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D388D4-B1BD-4F84-B511-6AC53AC23505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45276F97-41C8-4A3D-AFC6-746F6ECCD3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>含火險費、催收火險費、法務費、催收法務費轉呆金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1:催收
 2.部分轉呆
 3:呆帳
@@ -400,6 +396,10 @@
   <si>
     <t>共用代碼檔
 990:催收款項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含火險費、催收火險費、法務費、催收法務費轉呆金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="5"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45276F97-41C8-4A3D-AFC6-746F6ECCD3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>備註說明</t>
   </si>
@@ -101,12 +100,6 @@
     <t>轉催收本金</t>
   </si>
   <si>
-    <t>轉呆帳金額</t>
-  </si>
-  <si>
-    <t>催收餘額</t>
-  </si>
-  <si>
     <t>呆帳餘額</t>
   </si>
   <si>
@@ -347,10 +340,6 @@
   </si>
   <si>
     <t>OvduBal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉催收金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -402,11 +391,27 @@
     <t>不含火險費、催收火險費、法務費、催收法務費轉呆金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>轉催收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收餘額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉呆帳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收還款金額 =轉催收金額-催收餘額-轉呆帳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -749,23 +754,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -801,23 +789,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1014,14 +985,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="28"/>
@@ -1036,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
@@ -1046,14 +1017,14 @@
     </row>
     <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
@@ -1063,14 +1034,14 @@
     </row>
     <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
@@ -1080,7 +1051,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="7"/>
@@ -1093,7 +1064,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="7"/>
@@ -1106,7 +1077,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="7"/>
@@ -1146,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="14">
         <v>7</v>
@@ -1167,13 +1138,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="14">
         <v>3</v>
@@ -1188,13 +1159,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -1209,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="16">
         <v>3</v>
@@ -1230,20 +1201,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1253,20 +1224,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="16">
         <v>3</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1276,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="14">
         <v>8</v>
@@ -1297,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="14">
         <v>8</v>
@@ -1318,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="14">
         <v>8</v>
@@ -1339,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="16">
         <v>16</v>
@@ -1362,13 +1333,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="16">
         <v>16</v>
@@ -1385,13 +1356,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="16">
         <v>16</v>
@@ -1400,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -1410,13 +1381,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="14">
         <v>16</v>
@@ -1433,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="16">
         <v>16</v>
@@ -1456,13 +1427,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="16">
         <v>16</v>
@@ -1479,13 +1450,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="16">
         <v>16</v>
@@ -1494,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -1504,13 +1475,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="16">
         <v>16</v>
@@ -1518,7 +1489,9 @@
       <c r="F25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1527,13 +1500,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16">
         <v>16</v>
@@ -1550,13 +1523,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16">
         <v>16</v>
@@ -1573,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="16">
         <v>16</v>
@@ -1588,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -1598,13 +1571,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="16">
         <v>16</v>
@@ -1621,13 +1594,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="16">
         <v>16</v>
@@ -1644,13 +1617,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
@@ -1665,13 +1638,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="14">
         <v>30</v>
@@ -1686,13 +1659,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="16">
         <v>60</v>
@@ -1707,13 +1680,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
@@ -1728,13 +1701,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -1747,13 +1720,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="14">
         <v>6</v>
@@ -1768,13 +1741,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -1787,13 +1760,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="14">
         <v>6</v>
@@ -1814,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1832,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1843,13 +1816,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699DD024-6469-4656-8F6B-41C5697E05CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>備註說明</t>
   </si>
@@ -258,14 +250,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
@@ -407,11 +391,14 @@
     <t>催收還款金額 =轉催收金額-催收餘額-轉呆帳金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -555,14 +542,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -571,9 +558,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,19 +588,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,9 +616,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,9 +654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,9 +694,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,7 +766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -976,804 +951,797 @@
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15" style="8" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="74.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="5"/>
+    <col min="8" max="8" width="41" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>7</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A38" si="0">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>8</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="13"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13">
         <v>8</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="13">
         <v>8</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>16</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>2</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>16</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>2</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>16</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>2</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="G20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>16</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>2</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>16</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>2</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>16</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>2</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="13">
         <v>16</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>2</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="5"/>
+      <c r="G24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="16">
-        <v>16</v>
-      </c>
-      <c r="F25" s="16">
-        <v>2</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="B26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>16</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>2</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="B27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>16</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="13">
         <v>2</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>16</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>2</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="5"/>
+      <c r="G28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>16</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>2</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>16</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>2</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>72</v>
+      <c r="B31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="13">
         <v>30</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="D33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="13">
         <v>60</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>72</v>
+      <c r="D34" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="5"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="5"/>
+      <c r="D35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="13">
         <v>6</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="5"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="5"/>
+      <c r="D37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="13">
         <v>6</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="5"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1787,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1804,25 +1772,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
